--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H2">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I2">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J2">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.471191666666667</v>
+        <v>1.475208</v>
       </c>
       <c r="N2">
-        <v>4.413575</v>
+        <v>4.425624</v>
       </c>
       <c r="O2">
-        <v>0.6447353255635294</v>
+        <v>0.8210007041987012</v>
       </c>
       <c r="P2">
-        <v>0.6447353255635294</v>
+        <v>0.8210007041987013</v>
       </c>
       <c r="Q2">
-        <v>15.17109667291389</v>
+        <v>13.043002850136</v>
       </c>
       <c r="R2">
-        <v>136.539870056225</v>
+        <v>117.387025651224</v>
       </c>
       <c r="S2">
-        <v>0.4083372746273716</v>
+        <v>0.4857862145425871</v>
       </c>
       <c r="T2">
-        <v>0.4083372746273716</v>
+        <v>0.485786214542587</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H3">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I3">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J3">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8106620000000001</v>
+        <v>0.3216333333333333</v>
       </c>
       <c r="N3">
-        <v>2.431986</v>
+        <v>0.9649</v>
       </c>
       <c r="O3">
-        <v>0.3552646744364706</v>
+        <v>0.1789992958012987</v>
       </c>
       <c r="P3">
-        <v>0.3552646744364706</v>
+        <v>0.1789992958012987</v>
       </c>
       <c r="Q3">
-        <v>8.359639229688668</v>
+        <v>2.843710502766667</v>
       </c>
       <c r="R3">
-        <v>75.23675306719801</v>
+        <v>25.5933945249</v>
       </c>
       <c r="S3">
-        <v>0.2250036614698794</v>
+        <v>0.1059139046634197</v>
       </c>
       <c r="T3">
-        <v>0.2250036614698794</v>
+        <v>0.1059139046634197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>12.310314</v>
       </c>
       <c r="I4">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J4">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.471191666666667</v>
+        <v>1.475208</v>
       </c>
       <c r="N4">
-        <v>4.413575</v>
+        <v>4.425624</v>
       </c>
       <c r="O4">
-        <v>0.6447353255635294</v>
+        <v>0.8210007041987012</v>
       </c>
       <c r="P4">
-        <v>0.6447353255635294</v>
+        <v>0.8210007041987013</v>
       </c>
       <c r="Q4">
-        <v>6.036943790283333</v>
+        <v>6.053424565104</v>
       </c>
       <c r="R4">
-        <v>54.33249411254999</v>
+        <v>54.48082108593599</v>
       </c>
       <c r="S4">
-        <v>0.1624872102228495</v>
+        <v>0.2254595999317991</v>
       </c>
       <c r="T4">
-        <v>0.1624872102228494</v>
+        <v>0.2254595999317991</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>12.310314</v>
       </c>
       <c r="I5">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J5">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8106620000000001</v>
+        <v>0.3216333333333333</v>
       </c>
       <c r="N5">
-        <v>2.431986</v>
+        <v>0.9649</v>
       </c>
       <c r="O5">
-        <v>0.3552646744364706</v>
+        <v>0.1789992958012987</v>
       </c>
       <c r="P5">
-        <v>0.3552646744364706</v>
+        <v>0.1789992958012987</v>
       </c>
       <c r="Q5">
-        <v>3.326501255956</v>
+        <v>1.319802442066667</v>
       </c>
       <c r="R5">
-        <v>29.938511303604</v>
+        <v>11.8782219786</v>
       </c>
       <c r="S5">
-        <v>0.08953436170021509</v>
+        <v>0.04915599878665539</v>
       </c>
       <c r="T5">
-        <v>0.08953436170021506</v>
+        <v>0.04915599878665539</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H6">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I6">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J6">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.471191666666667</v>
+        <v>1.475208</v>
       </c>
       <c r="N6">
-        <v>4.413575</v>
+        <v>4.425624</v>
       </c>
       <c r="O6">
-        <v>0.6447353255635294</v>
+        <v>0.8210007041987012</v>
       </c>
       <c r="P6">
-        <v>0.6447353255635294</v>
+        <v>0.8210007041987013</v>
       </c>
       <c r="Q6">
-        <v>2.746035151116667</v>
+        <v>2.946838128864</v>
       </c>
       <c r="R6">
-        <v>24.71431636005</v>
+        <v>26.521543159776</v>
       </c>
       <c r="S6">
-        <v>0.07391084071330843</v>
+        <v>0.109754889724315</v>
       </c>
       <c r="T6">
-        <v>0.07391084071330843</v>
+        <v>0.109754889724315</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H7">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I7">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J7">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8106620000000001</v>
+        <v>0.3216333333333333</v>
       </c>
       <c r="N7">
-        <v>2.431986</v>
+        <v>0.9649</v>
       </c>
       <c r="O7">
-        <v>0.3552646744364706</v>
+        <v>0.1789992958012987</v>
       </c>
       <c r="P7">
-        <v>0.3552646744364706</v>
+        <v>0.1789992958012987</v>
       </c>
       <c r="Q7">
-        <v>1.513131428156</v>
+        <v>0.6424865986222222</v>
       </c>
       <c r="R7">
-        <v>13.618182853404</v>
+        <v>5.7823793876</v>
       </c>
       <c r="S7">
-        <v>0.04072665126637616</v>
+        <v>0.02392939235122359</v>
       </c>
       <c r="T7">
-        <v>0.04072665126637615</v>
+        <v>0.02392939235122359</v>
       </c>
     </row>
   </sheetData>
